--- a/Pipeline/prompt_results.xlsx
+++ b/Pipeline/prompt_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V239"/>
+  <dimension ref="A1:AN239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,72 +476,162 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>sensitivity_titles</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>specificity_titles</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>PPV_titles</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>NPV_titles</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tp_titles</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tn_titles</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>fp_titles</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>fn_titles</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity_abstracts</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>specificity_abstracts</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>PPV_abstracts</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>NPV_abstracts</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tp_abstracts</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>tn_abstracts</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>fp_abstracts</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>fn_abstracts</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Final_Relevant_PMIDs</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>title_sensitivity</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>title_specificity</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>title_ppv</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>title_tp</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>title_fp</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>title_tn</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>title_fn</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_sensitivity</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_specificity</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_ppv</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_tp</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_fp</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_tn</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>abstract_fn</t>
         </is>
       </c>
     </row>
@@ -591,10 +681,42 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>16279822,26672700,31081528,26293288,35818286,26593168,16279830,28280726,36984116,19154271,18456138,30673806,37308848,16627183,23311659,35965264,25875916,24442553,32255178,33289804,20869273,19537874,36850161,20655177,31473712,35575069,21059875,27256526,20567035,31516664,31797837,35120859,18486791,35631989,32632653,17448391,20685519,36680384,30701219,34575238,38104288,23592148,29295335,32613434,18005824,21457456,38303815,21561021,33293029,35739518,21841996,29653870,34631175,20413451,21435538,19216312,27036120,18984395,36508850,26154156,22976711,36458908,25406652,22437686,28962732,34344059,34683105,31974060,36774459,17944963,14765050,21875317,36633294,18672131,30982181,35337702,38784081,38524017,34821980,26926022,21848407,34277825,21981748,21055978,25895493,18193965</t>
-        </is>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>16279822,26672700,31081528,26293288,35818286,26593168,16279830,28280726,19154271,18456138,37308848,21484546</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -643,11 +765,25 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>16279822,37959247,31081528,26293288,35818286,26593168,16279830,28280726,36984116,19154271,18456138,22782051,37308848,16627183,23311659,34187487,35965264,25875916,19892291,24442553,32255178,33289804,20869273,19537874,36850161,31473712,35575069,21059875,27256526,31516664,20072753,31797837,35120859,18486791,35631989,17448391,20685519,36680384,30701219,34575238,38104288,23592148,29295335,32613434,18005824,16620616,21457456,38303815,21561021,35739518,21841996,29653870,34631175,20413451,21435538,27275618,19216312,27036120,18984395,36508850,22976711,27021460,36458908,33148234,34675696,25406652,22437686,28962732,34344059,34683105,31974060,36774459,17944963,14765050,21875317,36633294,30982181,36718162,35337702,37460998,38524017,34821980,26926022,21848407,36285989,34277825,21981748,21055978,25895493</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -695,11 +831,25 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>16279822,31081528,26293288,35818286,26593168,16279830,28280726,18456138,19413387,37308848,16627183,23311659,34187487,35965264,25875916,24442553,36018346,33289804,20869273,19537874,31473712,35575069,21059875,27256526,31516664,20072753,31797837,35120859,26515913,18486791,35631989,32632653,17448391,20685519,36680384,30701219,34575238,38104288,23592148,29295335,32613434,18005824,30826037,21457456,38303815,34994861,21561021,33293029,35739518,21841996,29653870,34631175,20413451,21435538,27275618,19216312,27036120,23880281,18984395,22976711,27021460,36458908,25728102,33148234,34675696,37152501,25406652,22437686,28962732,34683105,31974060,36774459,34906435,17944963,14765050,21875317,36633294,30982181,35337702,37460998,38524017,34821980,17448382,23726340,26926022,21848407,36285989,34277825,21055978,25895493</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -747,11 +897,25 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>16279822,26672700</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -800,6 +964,24 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -848,6 +1030,24 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -896,6 +1096,24 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -944,6 +1162,24 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1228,24 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1040,6 +1294,24 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1088,6 +1360,24 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1136,6 +1426,24 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1184,6 +1492,24 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1232,6 +1558,24 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1624,24 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1328,6 +1690,24 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1376,6 +1756,24 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1424,6 +1822,24 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1472,6 +1888,24 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1520,6 +1954,24 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1568,6 +2020,24 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1616,6 +2086,24 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1664,6 +2152,24 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1712,6 +2218,24 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1760,6 +2284,24 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1808,6 +2350,24 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1856,6 +2416,24 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1904,6 +2482,24 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1952,6 +2548,24 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2000,6 +2614,24 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2048,6 +2680,24 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2096,6 +2746,24 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2144,6 +2812,24 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2192,6 +2878,24 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2240,6 +2944,24 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2288,6 +3010,24 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2336,6 +3076,24 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2384,6 +3142,24 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +3208,24 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2480,6 +3274,24 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2528,6 +3340,24 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2576,6 +3406,24 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2624,6 +3472,24 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2672,6 +3538,24 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2720,6 +3604,24 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2768,6 +3670,24 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2816,6 +3736,24 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2864,6 +3802,24 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2912,6 +3868,24 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2960,6 +3934,24 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3008,6 +4000,24 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3056,6 +4066,24 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3104,6 +4132,24 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3152,6 +4198,24 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3200,6 +4264,24 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3248,6 +4330,24 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3296,6 +4396,24 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3344,6 +4462,24 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3392,6 +4528,24 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3440,6 +4594,24 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3488,6 +4660,24 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3536,6 +4726,24 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3584,6 +4792,24 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3632,6 +4858,24 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3680,6 +4924,24 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3728,6 +4990,24 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3776,6 +5056,24 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3824,6 +5122,24 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3872,6 +5188,24 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3920,6 +5254,24 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3968,6 +5320,24 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4016,6 +5386,24 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4064,6 +5452,24 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4112,6 +5518,24 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4160,6 +5584,24 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4208,6 +5650,24 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4256,6 +5716,24 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4304,6 +5782,24 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4352,6 +5848,24 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4400,6 +5914,24 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4448,6 +5980,24 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4496,6 +6046,24 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4544,6 +6112,24 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4592,6 +6178,24 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4640,6 +6244,24 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4688,6 +6310,24 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4736,6 +6376,24 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4784,6 +6442,24 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4832,6 +6508,24 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4880,6 +6574,24 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4928,6 +6640,24 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4976,6 +6706,24 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5024,6 +6772,24 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5072,6 +6838,24 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5120,6 +6904,24 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5168,6 +6970,24 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5216,6 +7036,24 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5264,6 +7102,24 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5312,6 +7168,24 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5360,6 +7234,24 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5408,6 +7300,24 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5456,6 +7366,24 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5504,6 +7432,24 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5552,6 +7498,24 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5600,6 +7564,24 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5648,6 +7630,24 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5696,6 +7696,24 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
+      <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="inlineStr"/>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5744,6 +7762,24 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5792,6 +7828,24 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+      <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5840,6 +7894,24 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5888,6 +7960,24 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5936,6 +8026,24 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5984,6 +8092,24 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+      <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6032,6 +8158,24 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+      <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6080,6 +8224,24 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+      <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="inlineStr"/>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6128,6 +8290,24 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
+      <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="inlineStr"/>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6176,6 +8356,24 @@
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="inlineStr"/>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6224,6 +8422,24 @@
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
+      <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6272,6 +8488,24 @@
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+      <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6320,6 +8554,24 @@
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6368,6 +8620,24 @@
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+      <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6416,6 +8686,24 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6464,6 +8752,24 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6512,6 +8818,24 @@
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6560,6 +8884,24 @@
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6608,6 +8950,24 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6656,6 +9016,24 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6704,6 +9082,24 @@
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6752,6 +9148,24 @@
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6800,6 +9214,24 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
+      <c r="AI131" t="inlineStr"/>
+      <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6848,6 +9280,24 @@
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
+      <c r="AI132" t="inlineStr"/>
+      <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
+      <c r="AN132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6896,6 +9346,24 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="inlineStr"/>
+      <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6944,6 +9412,24 @@
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
+      <c r="AI134" t="inlineStr"/>
+      <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6992,6 +9478,24 @@
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
+      <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7040,6 +9544,24 @@
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
+      <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7088,6 +9610,24 @@
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
+      <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7136,6 +9676,24 @@
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
+      <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7184,6 +9742,24 @@
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
+      <c r="AI139" t="inlineStr"/>
+      <c r="AJ139" t="inlineStr"/>
+      <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7232,6 +9808,24 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
+      <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7280,6 +9874,24 @@
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
+      <c r="AI141" t="inlineStr"/>
+      <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7328,6 +9940,24 @@
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
+      <c r="AI142" t="inlineStr"/>
+      <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -7376,6 +10006,24 @@
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
+      <c r="AI143" t="inlineStr"/>
+      <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -7424,6 +10072,24 @@
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
+      <c r="AI144" t="inlineStr"/>
+      <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -7472,6 +10138,24 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="inlineStr"/>
+      <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -7520,6 +10204,24 @@
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
+      <c r="AI146" t="inlineStr"/>
+      <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -7568,6 +10270,24 @@
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -7616,6 +10336,24 @@
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
+      <c r="AI148" t="inlineStr"/>
+      <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -7664,6 +10402,24 @@
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
+      <c r="AI149" t="inlineStr"/>
+      <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -7712,6 +10468,24 @@
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr"/>
+      <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7760,6 +10534,24 @@
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+      <c r="AI151" t="inlineStr"/>
+      <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -7808,6 +10600,24 @@
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="inlineStr"/>
+      <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7856,6 +10666,24 @@
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+      <c r="AI153" t="inlineStr"/>
+      <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -7904,6 +10732,24 @@
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+      <c r="AI154" t="inlineStr"/>
+      <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -7952,6 +10798,24 @@
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+      <c r="AI155" t="inlineStr"/>
+      <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -8000,6 +10864,24 @@
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="inlineStr"/>
+      <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -8048,6 +10930,24 @@
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -8096,6 +10996,24 @@
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8144,6 +11062,24 @@
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+      <c r="AI159" t="inlineStr"/>
+      <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -8192,6 +11128,24 @@
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8240,6 +11194,24 @@
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="inlineStr"/>
+      <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -8288,6 +11260,24 @@
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+      <c r="AI162" t="inlineStr"/>
+      <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8336,6 +11326,24 @@
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+      <c r="AI163" t="inlineStr"/>
+      <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -8384,6 +11392,24 @@
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+      <c r="AI164" t="inlineStr"/>
+      <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -8432,6 +11458,24 @@
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+      <c r="AI165" t="inlineStr"/>
+      <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -8480,6 +11524,24 @@
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="inlineStr"/>
+      <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -8528,6 +11590,24 @@
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+      <c r="AI167" t="inlineStr"/>
+      <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -8576,6 +11656,24 @@
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+      <c r="AI168" t="inlineStr"/>
+      <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -8624,6 +11722,24 @@
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+      <c r="AI169" t="inlineStr"/>
+      <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -8672,6 +11788,24 @@
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -8720,6 +11854,24 @@
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8768,6 +11920,24 @@
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -8816,6 +11986,24 @@
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+      <c r="AI173" t="inlineStr"/>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -8864,6 +12052,24 @@
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
+      <c r="AI174" t="inlineStr"/>
+      <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -8912,6 +12118,24 @@
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="inlineStr"/>
+      <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8960,6 +12184,24 @@
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+      <c r="AI176" t="inlineStr"/>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -9008,6 +12250,24 @@
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+      <c r="AI177" t="inlineStr"/>
+      <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -9056,6 +12316,24 @@
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+      <c r="AI178" t="inlineStr"/>
+      <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -9104,6 +12382,24 @@
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+      <c r="AI179" t="inlineStr"/>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -9152,6 +12448,24 @@
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+      <c r="AI180" t="inlineStr"/>
+      <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -9200,6 +12514,24 @@
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="inlineStr"/>
+      <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -9248,6 +12580,24 @@
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+      <c r="AI182" t="inlineStr"/>
+      <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -9296,6 +12646,24 @@
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+      <c r="AI183" t="inlineStr"/>
+      <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -9344,6 +12712,24 @@
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="inlineStr"/>
+      <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -9392,6 +12778,24 @@
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
+      <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -9440,6 +12844,24 @@
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
+      <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -9488,6 +12910,24 @@
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
+      <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -9536,6 +12976,24 @@
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
+      <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -9584,6 +13042,24 @@
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
+      <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -9632,6 +13108,24 @@
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
+      <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -9680,6 +13174,24 @@
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+      <c r="AI191" t="inlineStr"/>
+      <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -9728,6 +13240,24 @@
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+      <c r="AI192" t="inlineStr"/>
+      <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -9776,6 +13306,24 @@
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
+      <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -9824,6 +13372,24 @@
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
+      <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9872,6 +13438,24 @@
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
+      <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9920,6 +13504,24 @@
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+      <c r="AI196" t="inlineStr"/>
+      <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9968,6 +13570,24 @@
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr"/>
+      <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -10016,6 +13636,24 @@
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -10064,6 +13702,24 @@
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -10112,6 +13768,24 @@
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -10160,6 +13834,24 @@
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
+      <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -10208,6 +13900,24 @@
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr"/>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
+      <c r="AI202" t="inlineStr"/>
+      <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -10256,6 +13966,24 @@
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr"/>
+      <c r="AF203" t="inlineStr"/>
+      <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -10304,6 +14032,24 @@
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr"/>
+      <c r="AF204" t="inlineStr"/>
+      <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
+      <c r="AI204" t="inlineStr"/>
+      <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -10352,6 +14098,24 @@
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr"/>
+      <c r="AF205" t="inlineStr"/>
+      <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="inlineStr"/>
+      <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -10400,6 +14164,24 @@
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -10448,6 +14230,24 @@
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr"/>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
+      <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -10496,6 +14296,24 @@
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -10544,6 +14362,24 @@
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -10592,6 +14428,24 @@
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr"/>
+      <c r="AF210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
+      <c r="AI210" t="inlineStr"/>
+      <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -10640,6 +14494,24 @@
       <c r="T211" t="inlineStr"/>
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr"/>
+      <c r="AF211" t="inlineStr"/>
+      <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
+      <c r="AI211" t="inlineStr"/>
+      <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -10688,6 +14560,24 @@
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr"/>
+      <c r="AF212" t="inlineStr"/>
+      <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -10736,6 +14626,24 @@
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr"/>
+      <c r="AF213" t="inlineStr"/>
+      <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
+      <c r="AI213" t="inlineStr"/>
+      <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -10784,6 +14692,24 @@
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr"/>
+      <c r="AF214" t="inlineStr"/>
+      <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
+      <c r="AI214" t="inlineStr"/>
+      <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -10832,6 +14758,24 @@
       <c r="T215" t="inlineStr"/>
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr"/>
+      <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
+      <c r="AI215" t="inlineStr"/>
+      <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -10880,6 +14824,24 @@
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr"/>
+      <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
+      <c r="AI216" t="inlineStr"/>
+      <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -10928,6 +14890,24 @@
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr"/>
+      <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -10976,6 +14956,24 @@
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
+      <c r="AI218" t="inlineStr"/>
+      <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -11024,6 +15022,24 @@
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr"/>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
+      <c r="AI219" t="inlineStr"/>
+      <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -11072,6 +15088,24 @@
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr"/>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
+      <c r="AI220" t="inlineStr"/>
+      <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -11120,6 +15154,24 @@
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr"/>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
+      <c r="AI221" t="inlineStr"/>
+      <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -11168,6 +15220,24 @@
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr"/>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
+      <c r="AI222" t="inlineStr"/>
+      <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -11216,6 +15286,24 @@
       <c r="T223" t="inlineStr"/>
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="inlineStr"/>
+      <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -11264,6 +15352,24 @@
       <c r="T224" t="inlineStr"/>
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
+      <c r="AI224" t="inlineStr"/>
+      <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -11312,6 +15418,24 @@
       <c r="T225" t="inlineStr"/>
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -11360,6 +15484,24 @@
       <c r="T226" t="inlineStr"/>
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -11408,6 +15550,24 @@
       <c r="T227" t="inlineStr"/>
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
+      <c r="AI227" t="inlineStr"/>
+      <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -11456,6 +15616,24 @@
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
+      <c r="AI228" t="inlineStr"/>
+      <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -11504,6 +15682,24 @@
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
+      <c r="AI229" t="inlineStr"/>
+      <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -11552,6 +15748,24 @@
       <c r="T230" t="inlineStr"/>
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="inlineStr"/>
+      <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -11600,6 +15814,24 @@
       <c r="T231" t="inlineStr"/>
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
+      <c r="AI231" t="inlineStr"/>
+      <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -11648,6 +15880,24 @@
       <c r="T232" t="inlineStr"/>
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr"/>
+      <c r="AF232" t="inlineStr"/>
+      <c r="AG232" t="inlineStr"/>
+      <c r="AH232" t="inlineStr"/>
+      <c r="AI232" t="inlineStr"/>
+      <c r="AJ232" t="inlineStr"/>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr"/>
+      <c r="AN232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -11696,6 +15946,24 @@
       <c r="T233" t="inlineStr"/>
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="inlineStr"/>
+      <c r="AF233" t="inlineStr"/>
+      <c r="AG233" t="inlineStr"/>
+      <c r="AH233" t="inlineStr"/>
+      <c r="AI233" t="inlineStr"/>
+      <c r="AJ233" t="inlineStr"/>
+      <c r="AK233" t="inlineStr"/>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr"/>
+      <c r="AN233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -11744,6 +16012,24 @@
       <c r="T234" t="inlineStr"/>
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="inlineStr"/>
+      <c r="AF234" t="inlineStr"/>
+      <c r="AG234" t="inlineStr"/>
+      <c r="AH234" t="inlineStr"/>
+      <c r="AI234" t="inlineStr"/>
+      <c r="AJ234" t="inlineStr"/>
+      <c r="AK234" t="inlineStr"/>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr"/>
+      <c r="AN234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -11792,6 +16078,24 @@
       <c r="T235" t="inlineStr"/>
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+      <c r="AB235" t="inlineStr"/>
+      <c r="AC235" t="inlineStr"/>
+      <c r="AD235" t="inlineStr"/>
+      <c r="AE235" t="inlineStr"/>
+      <c r="AF235" t="inlineStr"/>
+      <c r="AG235" t="inlineStr"/>
+      <c r="AH235" t="inlineStr"/>
+      <c r="AI235" t="inlineStr"/>
+      <c r="AJ235" t="inlineStr"/>
+      <c r="AK235" t="inlineStr"/>
+      <c r="AL235" t="inlineStr"/>
+      <c r="AM235" t="inlineStr"/>
+      <c r="AN235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -11840,6 +16144,24 @@
       <c r="T236" t="inlineStr"/>
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+      <c r="AB236" t="inlineStr"/>
+      <c r="AC236" t="inlineStr"/>
+      <c r="AD236" t="inlineStr"/>
+      <c r="AE236" t="inlineStr"/>
+      <c r="AF236" t="inlineStr"/>
+      <c r="AG236" t="inlineStr"/>
+      <c r="AH236" t="inlineStr"/>
+      <c r="AI236" t="inlineStr"/>
+      <c r="AJ236" t="inlineStr"/>
+      <c r="AK236" t="inlineStr"/>
+      <c r="AL236" t="inlineStr"/>
+      <c r="AM236" t="inlineStr"/>
+      <c r="AN236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -11888,6 +16210,24 @@
       <c r="T237" t="inlineStr"/>
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
+      <c r="AA237" t="inlineStr"/>
+      <c r="AB237" t="inlineStr"/>
+      <c r="AC237" t="inlineStr"/>
+      <c r="AD237" t="inlineStr"/>
+      <c r="AE237" t="inlineStr"/>
+      <c r="AF237" t="inlineStr"/>
+      <c r="AG237" t="inlineStr"/>
+      <c r="AH237" t="inlineStr"/>
+      <c r="AI237" t="inlineStr"/>
+      <c r="AJ237" t="inlineStr"/>
+      <c r="AK237" t="inlineStr"/>
+      <c r="AL237" t="inlineStr"/>
+      <c r="AM237" t="inlineStr"/>
+      <c r="AN237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -11936,6 +16276,24 @@
       <c r="T238" t="inlineStr"/>
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr"/>
+      <c r="AA238" t="inlineStr"/>
+      <c r="AB238" t="inlineStr"/>
+      <c r="AC238" t="inlineStr"/>
+      <c r="AD238" t="inlineStr"/>
+      <c r="AE238" t="inlineStr"/>
+      <c r="AF238" t="inlineStr"/>
+      <c r="AG238" t="inlineStr"/>
+      <c r="AH238" t="inlineStr"/>
+      <c r="AI238" t="inlineStr"/>
+      <c r="AJ238" t="inlineStr"/>
+      <c r="AK238" t="inlineStr"/>
+      <c r="AL238" t="inlineStr"/>
+      <c r="AM238" t="inlineStr"/>
+      <c r="AN238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -11984,6 +16342,24 @@
       <c r="T239" t="inlineStr"/>
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr"/>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr"/>
+      <c r="AB239" t="inlineStr"/>
+      <c r="AC239" t="inlineStr"/>
+      <c r="AD239" t="inlineStr"/>
+      <c r="AE239" t="inlineStr"/>
+      <c r="AF239" t="inlineStr"/>
+      <c r="AG239" t="inlineStr"/>
+      <c r="AH239" t="inlineStr"/>
+      <c r="AI239" t="inlineStr"/>
+      <c r="AJ239" t="inlineStr"/>
+      <c r="AK239" t="inlineStr"/>
+      <c r="AL239" t="inlineStr"/>
+      <c r="AM239" t="inlineStr"/>
+      <c r="AN239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
